--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_16_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_16_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3657052.865134947</v>
+        <v>3652748.525325079</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283181</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7629155.044124122</v>
+        <v>7629155.044124121</v>
       </c>
     </row>
     <row r="11">
@@ -661,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>263.7138800015057</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>148.6865099692901</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>263.7138800015057</v>
       </c>
       <c r="F2" t="n">
-        <v>263.7138800015062</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>19.98946990210334</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>212.2897156032233</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -721,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -737,13 +737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>98.16050495411891</v>
       </c>
       <c r="T3" t="n">
-        <v>109.3170492634408</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -800,13 +800,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>158.1598212614787</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -828,16 +828,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>82.38361444819577</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>263.7138800015057</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -907,13 +907,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>263.7138800015062</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>115.3066195468971</v>
@@ -952,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>116.7041034359432</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>97.26234557100798</v>
       </c>
     </row>
     <row r="6">
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>127.4695742187181</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150558</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>65.39524526193523</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1059,25 +1059,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888208</v>
+        <v>15.07219909888212</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>149.2767824942844</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>62.28172511469249</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1144,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.5491597882495</v>
+        <v>203.7160769811138</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0334742203004</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465034</v>
+        <v>65.76608425464991</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6645630646898</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>60.69239420673631</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1214,7 +1214,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>170.9320498237859</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -1226,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.3351760237737</v>
+        <v>133.5587268592575</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614507</v>
+        <v>92.839096916145</v>
       </c>
       <c r="I9" t="n">
-        <v>20.24979976115237</v>
+        <v>20.24979976115216</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,10 +1262,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3791152901738</v>
+        <v>134.3791152901737</v>
       </c>
       <c r="T9" t="n">
-        <v>192.0697045406877</v>
+        <v>192.0697045406876</v>
       </c>
       <c r="U9" t="n">
         <v>225.8092543744329</v>
@@ -1293,25 +1293,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3072536117062</v>
+        <v>50.34571932180593</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2573199590395</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430995</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7514885103387</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>88.89989261784015</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1533,10 +1533,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1587,7 +1587,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>147.2606364488705</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>161.3555494301526</v>
       </c>
     </row>
     <row r="14">
@@ -1618,13 +1618,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,19 +1660,19 @@
         <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V14" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>112.6683130937951</v>
       </c>
       <c r="G16" t="n">
-        <v>146.6281161973744</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1824,7 +1824,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1903,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2007,13 +2007,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>40.57972681915197</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2140,7 +2140,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701359</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>15.09910835322218</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>83.06560892428253</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2301,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2374,7 +2374,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2484,19 +2484,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,13 +2529,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>39.19314274110837</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,16 +2766,16 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>177.1006680594869</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>95.12712756824166</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>107.4021082756238</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695517</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576159</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986277</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.433962646569</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462237</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856539</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>60.11729550773952</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3319,7 +3319,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576159</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462237</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>9.146142788182971</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722619</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695787</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174129</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>63.16281301712835</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986279</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229311</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922687</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462237</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856539</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012154</v>
+        <v>66.3752467101218</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016445</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U40" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V40" t="n">
-        <v>252.1376433238279</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W40" t="n">
-        <v>286.5229983365909</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X40" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520946</v>
+        <v>207.7302028825753</v>
       </c>
     </row>
     <row r="41">
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695537</v>
+        <v>83.70251495695535</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V41" t="n">
         <v>327.752258470135</v>
@@ -3906,16 +3906,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>38.61213096654735</v>
+        <v>83.06560892428162</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3991,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187865</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4137,22 +4137,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>104.8913819999782</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>307.6661507067968</v>
+        <v>840.421463841151</v>
       </c>
       <c r="C2" t="n">
-        <v>307.6661507067968</v>
+        <v>574.0438072739735</v>
       </c>
       <c r="D2" t="n">
-        <v>307.6661507067968</v>
+        <v>423.8554133655996</v>
       </c>
       <c r="E2" t="n">
-        <v>307.6661507067968</v>
+        <v>157.4777567984221</v>
       </c>
       <c r="F2" t="n">
-        <v>41.28849413961882</v>
+        <v>150.5322560492186</v>
       </c>
       <c r="G2" t="n">
-        <v>21.0971104001205</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="H2" t="n">
-        <v>21.0971104001205</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012046</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917579</v>
+        <v>49.2826908791755</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052547</v>
+        <v>142.2640879052536</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515912</v>
+        <v>294.51749475159</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030612</v>
+        <v>495.5981834030597</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991325</v>
+        <v>704.5463761991308</v>
       </c>
       <c r="O2" t="n">
-        <v>888.514968335842</v>
+        <v>888.5149683358403</v>
       </c>
       <c r="P2" t="n">
-        <v>1011.026904601763</v>
+        <v>1011.026904601761</v>
       </c>
       <c r="Q2" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006023</v>
       </c>
       <c r="R2" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006023</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006023</v>
       </c>
       <c r="T2" t="n">
-        <v>840.4214638411528</v>
+        <v>840.421463841151</v>
       </c>
       <c r="U2" t="n">
-        <v>840.4214638411528</v>
+        <v>840.421463841151</v>
       </c>
       <c r="V2" t="n">
-        <v>840.4214638411528</v>
+        <v>840.421463841151</v>
       </c>
       <c r="W2" t="n">
-        <v>574.0438072739748</v>
+        <v>840.421463841151</v>
       </c>
       <c r="X2" t="n">
-        <v>307.6661507067968</v>
+        <v>840.421463841151</v>
       </c>
       <c r="Y2" t="n">
-        <v>307.6661507067968</v>
+        <v>840.421463841151</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.0971104001205</v>
+        <v>344.4845493424988</v>
       </c>
       <c r="C3" t="n">
-        <v>21.0971104001205</v>
+        <v>170.0315200613717</v>
       </c>
       <c r="D3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012046</v>
       </c>
       <c r="E3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012046</v>
       </c>
       <c r="F3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012046</v>
       </c>
       <c r="G3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012046</v>
       </c>
       <c r="H3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012046</v>
       </c>
       <c r="I3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012046</v>
       </c>
       <c r="J3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012046</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957466</v>
+        <v>95.78113116957454</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298713</v>
+        <v>242.5255548298711</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263951</v>
+        <v>433.1262439263947</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110290001</v>
+        <v>643.1802110289997</v>
       </c>
       <c r="O3" t="n">
-        <v>813.1187583557299</v>
+        <v>813.1187583557294</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789493</v>
+        <v>930.1763583891328</v>
       </c>
       <c r="Q3" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006023</v>
       </c>
       <c r="R3" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006023</v>
       </c>
       <c r="S3" t="n">
-        <v>1036.519636212815</v>
+        <v>955.7034947998422</v>
       </c>
       <c r="T3" t="n">
-        <v>926.0983743305515</v>
+        <v>955.7034947998422</v>
       </c>
       <c r="U3" t="n">
-        <v>926.0983743305515</v>
+        <v>955.7034947998422</v>
       </c>
       <c r="V3" t="n">
-        <v>690.9462660988088</v>
+        <v>720.5513865680996</v>
       </c>
       <c r="W3" t="n">
-        <v>436.7089093706072</v>
+        <v>720.5513865680996</v>
       </c>
       <c r="X3" t="n">
-        <v>228.8574091650744</v>
+        <v>512.6998863625668</v>
       </c>
       <c r="Y3" t="n">
-        <v>21.0971104001205</v>
+        <v>512.6998863625668</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>606.0733899644773</v>
+        <v>567.6852842953152</v>
       </c>
       <c r="C4" t="n">
-        <v>446.3159947508624</v>
+        <v>567.6852842953152</v>
       </c>
       <c r="D4" t="n">
-        <v>446.3159947508624</v>
+        <v>567.6852842953152</v>
       </c>
       <c r="E4" t="n">
-        <v>298.4029011684693</v>
+        <v>419.7721907129221</v>
       </c>
       <c r="F4" t="n">
-        <v>298.4029011684693</v>
+        <v>272.8822432150117</v>
       </c>
       <c r="G4" t="n">
-        <v>298.4029011684693</v>
+        <v>104.3128825700152</v>
       </c>
       <c r="H4" t="n">
-        <v>144.4815281019473</v>
+        <v>21.09711040012046</v>
       </c>
       <c r="I4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012046</v>
       </c>
       <c r="J4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012046</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551007</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375336</v>
+        <v>527.7368878375333</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227043</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075526</v>
       </c>
       <c r="P4" t="n">
-        <v>1048.360858816803</v>
+        <v>1048.360858816801</v>
       </c>
       <c r="Q4" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006023</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006023</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006023</v>
       </c>
       <c r="T4" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006023</v>
       </c>
       <c r="U4" t="n">
-        <v>1054.855520006025</v>
+        <v>788.4778634388454</v>
       </c>
       <c r="V4" t="n">
-        <v>1054.855520006025</v>
+        <v>788.4778634388454</v>
       </c>
       <c r="W4" t="n">
-        <v>1054.855520006025</v>
+        <v>788.4778634388454</v>
       </c>
       <c r="X4" t="n">
-        <v>826.8659691080074</v>
+        <v>788.4778634388454</v>
       </c>
       <c r="Y4" t="n">
-        <v>606.0733899644773</v>
+        <v>567.6852842953152</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>683.2875691835745</v>
+        <v>157.4777567984221</v>
       </c>
       <c r="C5" t="n">
-        <v>683.2875691835745</v>
+        <v>157.4777567984221</v>
       </c>
       <c r="D5" t="n">
-        <v>683.2875691835745</v>
+        <v>157.4777567984221</v>
       </c>
       <c r="E5" t="n">
-        <v>683.2875691835745</v>
+        <v>157.4777567984221</v>
       </c>
       <c r="F5" t="n">
-        <v>416.9099126163965</v>
+        <v>150.5322560492186</v>
       </c>
       <c r="G5" t="n">
-        <v>403.9460998429521</v>
+        <v>137.5684432757742</v>
       </c>
       <c r="H5" t="n">
-        <v>137.5684432757741</v>
+        <v>137.5684432757742</v>
       </c>
       <c r="I5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917556</v>
+        <v>49.2826908791767</v>
       </c>
       <c r="K5" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052547</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515906</v>
+        <v>294.517494751591</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030605</v>
+        <v>495.5981834030607</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991317</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358416</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
       </c>
       <c r="Q5" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R5" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="S5" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="T5" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="U5" t="n">
-        <v>801.1705019471535</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="V5" t="n">
-        <v>683.2875691835745</v>
+        <v>788.4778634388465</v>
       </c>
       <c r="W5" t="n">
-        <v>683.2875691835745</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="X5" t="n">
-        <v>683.2875691835745</v>
+        <v>255.7225503044908</v>
       </c>
       <c r="Y5" t="n">
-        <v>683.2875691835745</v>
+        <v>157.4777567984221</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C6" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D6" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E6" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F6" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G6" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H6" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>117.4455628004802</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>192.1295835699344</v>
+        <v>95.78113116957456</v>
       </c>
       <c r="L6" t="n">
-        <v>338.8740072302311</v>
+        <v>242.5255548298711</v>
       </c>
       <c r="M6" t="n">
-        <v>529.474696326755</v>
+        <v>433.1262439263948</v>
       </c>
       <c r="N6" t="n">
-        <v>739.52866342936</v>
+        <v>643.1802110289997</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560898</v>
+        <v>813.1187583557294</v>
       </c>
       <c r="P6" t="n">
-        <v>1026.524810789493</v>
+        <v>930.1763583891328</v>
       </c>
       <c r="Q6" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="S6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="T6" t="n">
-        <v>970.4638329179309</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="U6" t="n">
-        <v>970.4638329179309</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="V6" t="n">
-        <v>735.3117246861882</v>
+        <v>819.7034117742817</v>
       </c>
       <c r="W6" t="n">
-        <v>481.0743679579866</v>
+        <v>565.4660550460801</v>
       </c>
       <c r="X6" t="n">
-        <v>273.2228677524538</v>
+        <v>357.6145548405473</v>
       </c>
       <c r="Y6" t="n">
-        <v>65.46256898749988</v>
+        <v>149.8542560755934</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>635.162607493506</v>
+        <v>184.234647516738</v>
       </c>
       <c r="C7" t="n">
-        <v>635.162607493506</v>
+        <v>184.234647516738</v>
       </c>
       <c r="D7" t="n">
-        <v>485.0459680811703</v>
+        <v>184.234647516738</v>
       </c>
       <c r="E7" t="n">
-        <v>337.1328744987772</v>
+        <v>36.32155393434486</v>
       </c>
       <c r="F7" t="n">
-        <v>190.2429270008668</v>
+        <v>36.32155393434486</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2429270008668</v>
+        <v>36.32155393434486</v>
       </c>
       <c r="H7" t="n">
-        <v>36.32155393434482</v>
+        <v>36.32155393434486</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434482</v>
+        <v>36.32155393434486</v>
       </c>
       <c r="J7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
         <v>126.4133765287946</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551007</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375336</v>
+        <v>527.7368878375333</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227043</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075543</v>
+        <v>918.469937207554</v>
       </c>
       <c r="P7" t="n">
-        <v>1048.360858816803</v>
+        <v>1048.360858816802</v>
       </c>
       <c r="Q7" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R7" t="n">
-        <v>926.0629918407077</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="S7" t="n">
-        <v>926.0629918407077</v>
+        <v>904.0708912239189</v>
       </c>
       <c r="T7" t="n">
-        <v>926.0629918407077</v>
+        <v>678.6018549819332</v>
       </c>
       <c r="U7" t="n">
-        <v>926.0629918407077</v>
+        <v>678.6018549819332</v>
       </c>
       <c r="V7" t="n">
-        <v>926.0629918407077</v>
+        <v>678.6018549819332</v>
       </c>
       <c r="W7" t="n">
-        <v>926.0629918407077</v>
+        <v>412.2241984147553</v>
       </c>
       <c r="X7" t="n">
-        <v>698.0734409426904</v>
+        <v>184.234647516738</v>
       </c>
       <c r="Y7" t="n">
-        <v>635.162607493506</v>
+        <v>184.234647516738</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1606.673685131699</v>
+        <v>1057.58917477167</v>
       </c>
       <c r="C8" t="n">
-        <v>1606.673685131699</v>
+        <v>688.6266578312582</v>
       </c>
       <c r="D8" t="n">
-        <v>1248.407986524948</v>
+        <v>330.3609592245077</v>
       </c>
       <c r="E8" t="n">
-        <v>1248.407986524948</v>
+        <v>330.3609592245077</v>
       </c>
       <c r="F8" t="n">
-        <v>837.4220817353408</v>
+        <v>323.4154584753042</v>
       </c>
       <c r="G8" t="n">
-        <v>421.715859727008</v>
+        <v>117.641643342866</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6416433428661</v>
+        <v>117.641643342866</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685568</v>
+        <v>51.21125520685595</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467175</v>
+        <v>187.3702251467184</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607425</v>
+        <v>442.175743760745</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045936</v>
+        <v>795.1862829045974</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995227</v>
+        <v>1219.647962995233</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209585</v>
+        <v>1655.591685209593</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940597</v>
+        <v>2053.905718940607</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550198</v>
+        <v>2359.35653055021</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661164</v>
+        <v>2540.564622661177</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342784</v>
+        <v>2560.562760342797</v>
       </c>
       <c r="S8" t="n">
-        <v>2560.562760342784</v>
+        <v>2560.562760342797</v>
       </c>
       <c r="T8" t="n">
-        <v>2351.810676439057</v>
+        <v>2560.562760342797</v>
       </c>
       <c r="U8" t="n">
-        <v>2351.810676439057</v>
+        <v>2560.562760342797</v>
       </c>
       <c r="V8" t="n">
-        <v>2020.747789095486</v>
+        <v>2560.562760342797</v>
       </c>
       <c r="W8" t="n">
-        <v>1667.979133825372</v>
+        <v>2207.794105072683</v>
       </c>
       <c r="X8" t="n">
-        <v>1606.673685131699</v>
+        <v>1834.328346811603</v>
       </c>
       <c r="Y8" t="n">
-        <v>1606.673685131699</v>
+        <v>1444.189014835792</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>929.5097208010786</v>
+        <v>929.5097208010923</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8510846154363</v>
+        <v>755.0566915199653</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9166749541851</v>
+        <v>606.122281858714</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792199487295</v>
+        <v>446.8848268532585</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446619756144</v>
+        <v>300.3502688801435</v>
       </c>
       <c r="G9" t="n">
         <v>165.4424639718026</v>
       </c>
       <c r="H9" t="n">
-        <v>71.66559839993889</v>
+        <v>71.66559839993894</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685568</v>
+        <v>51.21125520685595</v>
       </c>
       <c r="J9" t="n">
-        <v>238.3188829507235</v>
+        <v>238.3188829507243</v>
       </c>
       <c r="K9" t="n">
-        <v>613.7598241331822</v>
+        <v>684.7364639442774</v>
       </c>
       <c r="L9" t="n">
-        <v>908.2958075666635</v>
+        <v>979.27244737776</v>
       </c>
       <c r="M9" t="n">
-        <v>1271.362276040965</v>
+        <v>1342.338915852063</v>
       </c>
       <c r="N9" t="n">
-        <v>1658.446678513534</v>
+        <v>1729.423318324634</v>
       </c>
       <c r="O9" t="n">
-        <v>1990.333488500924</v>
+        <v>2061.310128312025</v>
       </c>
       <c r="P9" t="n">
-        <v>2237.368846930548</v>
+        <v>2308.34548674165</v>
       </c>
       <c r="Q9" t="n">
-        <v>2560.562760342784</v>
+        <v>2560.562760342797</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342784</v>
+        <v>2560.562760342797</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251699</v>
+        <v>2424.826280251713</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.816477685348</v>
+        <v>2230.816477685362</v>
       </c>
       <c r="U9" t="n">
-        <v>2002.726321751578</v>
+        <v>2002.726321751591</v>
       </c>
       <c r="V9" t="n">
-        <v>1767.574213519835</v>
+        <v>1767.574213519849</v>
       </c>
       <c r="W9" t="n">
-        <v>1513.336856791633</v>
+        <v>1513.336856791647</v>
       </c>
       <c r="X9" t="n">
-        <v>1305.485356586101</v>
+        <v>1305.485356586114</v>
       </c>
       <c r="Y9" t="n">
-        <v>1097.725057821147</v>
+        <v>1097.72505782116</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>623.9347868553987</v>
+        <v>715.9213805686202</v>
       </c>
       <c r="C10" t="n">
-        <v>623.9347868553987</v>
+        <v>546.9851976407133</v>
       </c>
       <c r="D10" t="n">
-        <v>473.818147443063</v>
+        <v>396.8685582283775</v>
       </c>
       <c r="E10" t="n">
-        <v>473.818147443063</v>
+        <v>248.9554646459844</v>
       </c>
       <c r="F10" t="n">
-        <v>473.818147443063</v>
+        <v>102.0655171480741</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8310225827537</v>
+        <v>51.21125520685595</v>
       </c>
       <c r="H10" t="n">
-        <v>157.0862549473602</v>
+        <v>51.21125520685595</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685568</v>
+        <v>51.21125520685595</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380149</v>
+        <v>76.63468308380213</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676568</v>
+        <v>248.250021567658</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368921</v>
+        <v>523.385004336894</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904036</v>
+        <v>823.8653899904064</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101613</v>
+        <v>1122.635640101616</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931091</v>
+        <v>1382.582027931095</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.4903876165</v>
+        <v>1581.490387616505</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477363</v>
+        <v>1635.769145477368</v>
       </c>
       <c r="R10" t="n">
-        <v>1635.769145477363</v>
+        <v>1635.769145477368</v>
       </c>
       <c r="S10" t="n">
-        <v>1635.769145477363</v>
+        <v>1635.769145477368</v>
       </c>
       <c r="T10" t="n">
-        <v>1412.787843951768</v>
+        <v>1635.769145477368</v>
       </c>
       <c r="U10" t="n">
-        <v>1412.787843951768</v>
+        <v>1635.769145477368</v>
       </c>
       <c r="V10" t="n">
-        <v>1412.787843951768</v>
+        <v>1635.769145477368</v>
       </c>
       <c r="W10" t="n">
-        <v>1123.370673914807</v>
+        <v>1346.351975440407</v>
       </c>
       <c r="X10" t="n">
-        <v>895.3811230167901</v>
+        <v>1118.36242454239</v>
       </c>
       <c r="Y10" t="n">
-        <v>805.5832516856384</v>
+        <v>897.5698453988599</v>
       </c>
     </row>
     <row r="11">
@@ -5023,31 +5023,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
@@ -5068,10 +5068,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1231.938859683105</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1859.536823237711</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>869.6905094135296</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C13" t="n">
-        <v>700.7543264856228</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D13" t="n">
-        <v>550.637687073287</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1789.538274322277</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1500.121104285317</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1272.131553387299</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1051.338974243769</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,22 +5266,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,28 +5290,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.913939313768</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N15" t="n">
-        <v>1964.511902868375</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>763.7541388327652</v>
+        <v>835.5837926935558</v>
       </c>
       <c r="C16" t="n">
-        <v>763.7541388327652</v>
+        <v>666.6476097656489</v>
       </c>
       <c r="D16" t="n">
-        <v>613.6374994204294</v>
+        <v>516.5309703533131</v>
       </c>
       <c r="E16" t="n">
-        <v>465.7244058380363</v>
+        <v>516.5309703533131</v>
       </c>
       <c r="F16" t="n">
-        <v>465.7244058380363</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603202</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.2863919474</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741513</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704552</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806535</v>
+        <v>1238.024836667326</v>
       </c>
       <c r="Y16" t="n">
-        <v>945.4026036630049</v>
+        <v>1017.232257523796</v>
       </c>
     </row>
     <row r="17">
@@ -5506,22 +5506,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014779</v>
@@ -5536,28 +5536,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
@@ -5600,22 +5600,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1174.766565373399</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1802.364528928006</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>991.7436897307817</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>822.8075068028749</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D19" t="n">
-        <v>672.6908673905391</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5700,25 +5700,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704551</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X19" t="n">
-        <v>1394.184733704551</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y19" t="n">
-        <v>1173.392154561021</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="20">
@@ -5731,22 +5731,22 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
@@ -5755,46 +5755,46 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M21" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N21" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O21" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>803.2707707770319</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C22" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D22" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E22" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270452</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1205.711814750802</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y22" t="n">
-        <v>984.9192356072716</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="23">
@@ -5986,22 +5986,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,25 +6065,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M24" t="n">
-        <v>1072.713683962606</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>1700.311647517212</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2252.221377756499</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>948.5505208511906</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6177,22 +6177,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2157.473512415741</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1868.398285759938</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1868.398285759938</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1578.981115722978</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1350.99156482496</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1130.19898568143</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6229,22 +6229,22 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>506.2737913123336</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6414,22 +6414,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1907.987318831765</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6457,19 +6457,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
@@ -6490,10 +6490,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
@@ -6536,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876688</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C31" t="n">
-        <v>580.8993044876688</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>202.3036411041575</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6648,25 +6648,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="32">
@@ -6676,43 +6676,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168608</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
@@ -6730,13 +6730,13 @@
         <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
         <v>3467.980956852888</v>
@@ -6745,7 +6745,7 @@
         <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6773,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232831</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408901</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429798</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578599</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000581</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2386.238542663353</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2203.383708318258</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1983.782243341199</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1983.782243341199</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1729.097755135312</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1729.097755135312</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1501.108204237295</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093765</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6925,7 +6925,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6934,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,7 +6949,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6967,13 +6967,13 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
         <v>3467.980956852889</v>
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.899304487672</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597652</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>411.9631215597652</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>411.9631215597652</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>411.9631215597652</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>244.7670222746453</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>103.0551911168436</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580262</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235167</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258108</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602306</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396419</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359459</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179116</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7162,55 +7162,55 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362688</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192601</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111748</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107584</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.61155333239</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014782</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.89852635594</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
         <v>3467.980956852888</v>
@@ -7219,7 +7219,7 @@
         <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>577.3880777468472</v>
       </c>
       <c r="L39" t="n">
         <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1700.311647517212</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2875.571313159222</v>
+        <v>707.6725264685185</v>
       </c>
       <c r="C40" t="n">
-        <v>2875.571313159222</v>
+        <v>538.7363435406115</v>
       </c>
       <c r="D40" t="n">
-        <v>2875.571313159222</v>
+        <v>388.6197041282757</v>
       </c>
       <c r="E40" t="n">
-        <v>2875.571313159222</v>
+        <v>240.7066105458824</v>
       </c>
       <c r="F40" t="n">
-        <v>2728.681365661312</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="G40" t="n">
-        <v>2561.485266376192</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.77343521839</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797741</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S40" t="n">
-        <v>4440.9326143059</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="T40" t="n">
-        <v>4221.331149328841</v>
+        <v>2160.315914855603</v>
       </c>
       <c r="U40" t="n">
-        <v>3932.255922673039</v>
+        <v>1871.240688199801</v>
       </c>
       <c r="V40" t="n">
-        <v>3677.571434467152</v>
+        <v>1616.556199993914</v>
       </c>
       <c r="W40" t="n">
-        <v>3388.154264430192</v>
+        <v>1327.139029956953</v>
       </c>
       <c r="X40" t="n">
-        <v>3160.164713532175</v>
+        <v>1099.149479058935</v>
       </c>
       <c r="Y40" t="n">
-        <v>2939.372134388645</v>
+        <v>889.3209912987584</v>
       </c>
     </row>
     <row r="41">
@@ -7390,70 +7390,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192601</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.852361107584</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.61155333239</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014782</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.89852635594</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J42" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L42" t="n">
-        <v>680.0291294438176</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>446.9048623224643</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>300.0149148245539</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>132.8188155394338</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L43" t="n">
         <v>826.1405381797745</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7645,22 +7645,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7730,10 +7730,10 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M45" t="n">
         <v>1373.553594266881</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7839,19 +7839,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761162</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418266</v>
+        <v>2.051220519418308</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8075,10 +8075,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>97.32166909127261</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>97.3216690912715</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8151,13 +8151,13 @@
         <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
-        <v>163.0416663658825</v>
+        <v>163.0416663658812</v>
       </c>
       <c r="P4" t="n">
         <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>65.34295837775151</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761162</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>99.37288961069063</v>
+        <v>2.051220519418308</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>97.32166909127288</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>192.7716614458176</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>138.3837121690925</v>
       </c>
       <c r="R9" t="n">
-        <v>20.98618304348508</v>
+        <v>20.9861830434847</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -11062,7 +11062,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>3.296918293926865e-12</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -23421,10 +23421,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>104.8770068749575</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
     </row>
     <row r="14">
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>32.75273492913614</v>
       </c>
       <c r="G16" t="n">
-        <v>18.89602209489445</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23895,13 +23895,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>105.8542358274172</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>152.1477127454056</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194133</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24372,19 +24372,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,13 +24417,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>178.2123075861799</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,16 +24654,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>109.4223302771041</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>53.48834544997069</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>32.89260457060008</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,10 +24888,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25077,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>6.257951202382024</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,13 +25131,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.184474389244</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>72.11969353038242</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012154</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>116.6691671648088</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856565</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>10.85445046951963</v>
       </c>
     </row>
     <row r="41">
@@ -25794,16 +25794,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>101.6825818796765</v>
+        <v>57.22910392194227</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26025,22 +26025,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>41.54258064659096</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>655476.3831922021</v>
+        <v>655476.383192202</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>655476.3831922021</v>
+        <v>655476.383192202</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>655476.3831922021</v>
+        <v>655476.383192202</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>655476.3831922021</v>
+        <v>655476.383192202</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>655476.3831922021</v>
+        <v>655476.383192202</v>
       </c>
     </row>
     <row r="15">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710694</v>
+        <v>779989.6813710696</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.6813710694</v>
+        <v>779989.6813710696</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.681371069</v>
+        <v>779989.6813710692</v>
       </c>
       <c r="E2" t="n">
-        <v>766789.2697055062</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="F2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="G2" t="n">
         <v>766789.2697055059</v>
       </c>
       <c r="H2" t="n">
+        <v>766789.269705506</v>
+      </c>
+      <c r="I2" t="n">
         <v>766789.2697055059</v>
       </c>
-      <c r="I2" t="n">
-        <v>766789.2697055062</v>
-      </c>
       <c r="J2" t="n">
+        <v>766789.2697055057</v>
+      </c>
+      <c r="K2" t="n">
+        <v>766789.2697055057</v>
+      </c>
+      <c r="L2" t="n">
         <v>766789.2697055058</v>
       </c>
-      <c r="K2" t="n">
-        <v>766789.269705506</v>
-      </c>
-      <c r="L2" t="n">
-        <v>766789.2697055059</v>
-      </c>
       <c r="M2" t="n">
-        <v>766789.2697055062</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="N2" t="n">
-        <v>766789.2697055062</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="O2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="P2" t="n">
         <v>766789.2697055058</v>
@@ -26365,43 +26365,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911931</v>
+        <v>680087.9805911926</v>
       </c>
       <c r="C3" t="n">
-        <v>1.03523461802979e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580789</v>
+        <v>390680.0076580828</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606931</v>
+        <v>507909.2320606898</v>
       </c>
       <c r="F3" t="n">
-        <v>3.074816439558552e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>5.322456217982109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911407</v>
+        <v>68999.15441911393</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.2377910177</v>
+        <v>95270.23779101859</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954692</v>
+        <v>132717.9756954681</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>7.612038643856066e-11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>250332.6659748621</v>
+        <v>250332.6659748622</v>
       </c>
       <c r="C4" t="n">
-        <v>250332.6659748621</v>
+        <v>250332.6659748622</v>
       </c>
       <c r="D4" t="n">
-        <v>139261.6527555024</v>
+        <v>139261.6527555014</v>
       </c>
       <c r="E4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="F4" t="n">
+        <v>10557.08828678121</v>
+      </c>
+      <c r="G4" t="n">
+        <v>10557.08828678126</v>
+      </c>
+      <c r="H4" t="n">
         <v>10557.08828678116</v>
       </c>
-      <c r="G4" t="n">
-        <v>10557.08828678121</v>
-      </c>
-      <c r="H4" t="n">
-        <v>10557.08828678121</v>
-      </c>
       <c r="I4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.0882867812</v>
       </c>
       <c r="J4" t="n">
         <v>10557.08828678121</v>
@@ -26447,16 +26447,16 @@
         <v>10557.08828678121</v>
       </c>
       <c r="L4" t="n">
-        <v>10557.08828678133</v>
+        <v>10557.08828678117</v>
       </c>
       <c r="M4" t="n">
-        <v>10557.08828678125</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="N4" t="n">
-        <v>10557.08828678126</v>
+        <v>10557.088286781</v>
       </c>
       <c r="O4" t="n">
-        <v>10557.08828678116</v>
+        <v>10557.08828678127</v>
       </c>
       <c r="P4" t="n">
         <v>10557.08828678121</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.8032042662</v>
+        <v>63047.80320426617</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.8032042662</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567897</v>
+        <v>92902.86757567925</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26487,7 +26487,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="I5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-213478.768399252</v>
+        <v>-213478.7683992513</v>
       </c>
       <c r="C6" t="n">
-        <v>466609.2121919409</v>
+        <v>466609.2121919413</v>
       </c>
       <c r="D6" t="n">
-        <v>157145.1533818088</v>
+        <v>157145.1533818058</v>
       </c>
       <c r="E6" t="n">
-        <v>147200.4195341247</v>
+        <v>146853.0402797708</v>
       </c>
       <c r="F6" t="n">
-        <v>655109.6515948174</v>
+        <v>654762.2723404608</v>
       </c>
       <c r="G6" t="n">
-        <v>655109.651594818</v>
+        <v>654762.2723404604</v>
       </c>
       <c r="H6" t="n">
-        <v>655109.6515948176</v>
+        <v>654762.2723404602</v>
       </c>
       <c r="I6" t="n">
-        <v>655109.6515948179</v>
+        <v>654762.2723404611</v>
       </c>
       <c r="J6" t="n">
-        <v>586110.4971757034</v>
+        <v>585763.1179213466</v>
       </c>
       <c r="K6" t="n">
-        <v>655109.6515948178</v>
+        <v>654762.2723404604</v>
       </c>
       <c r="L6" t="n">
-        <v>559839.4138037998</v>
+        <v>559492.034549442</v>
       </c>
       <c r="M6" t="n">
-        <v>522391.6758993486</v>
+        <v>522044.2966449924</v>
       </c>
       <c r="N6" t="n">
-        <v>655109.6515948179</v>
+        <v>654762.2723404607</v>
       </c>
       <c r="O6" t="n">
-        <v>655109.6515948178</v>
+        <v>654762.2723404604</v>
       </c>
       <c r="P6" t="n">
-        <v>655109.6515948175</v>
+        <v>654762.2723404606</v>
       </c>
     </row>
   </sheetData>
@@ -26715,13 +26715,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.055013769478</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.055013769478</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627829</v>
+        <v>933.7024595627857</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015057</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.140690085696</v>
+        <v>640.1406900856994</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26825,10 +26825,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26922,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26937,10 +26937,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.016897076984856e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26959,28 +26959,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.055013769478</v>
       </c>
       <c r="C3" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933045</v>
+        <v>319.6474457933077</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788908</v>
+        <v>434.273040778888</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2.273736754432321e-13</v>
+      </c>
+      <c r="H3" t="n">
         <v>4.547473508864641e-13</v>
       </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-3.512783630415904e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015057</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841897</v>
+        <v>376.4268100841933</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139525</v>
+        <v>532.5675980139488</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27029,25 +27029,25 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015057</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841892</v>
+        <v>376.4268100841935</v>
       </c>
       <c r="M4" t="n">
-        <v>532.567598013953</v>
+        <v>532.5675980139488</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27159,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015057</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841897</v>
+        <v>376.4268100841933</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139525</v>
+        <v>532.5675980139488</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27275,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27381,25 +27381,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>101.5590117695018</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>205.9965316513928</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>118.216490070756</v>
       </c>
       <c r="F2" t="n">
-        <v>143.1621657402052</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>392.8447047436067</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27441,10 +27441,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>85.52708871590681</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>106.0172206769628</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27457,13 +27457,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27478,7 +27478,7 @@
         <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>43.92180400150561</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,13 +27505,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527771</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>48.98943045807987</v>
       </c>
       <c r="T3" t="n">
-        <v>85.52393832143595</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
         <v>225.8544875035546</v>
@@ -27520,13 +27520,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>9.086999837149108</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27548,19 +27548,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>69.99854488766101</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248086</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>15.07219909888212</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27593,7 +27593,7 @@
         <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586305026775</v>
+        <v>22.54475050117175</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27627,13 +27627,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>143.1621657402052</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>50.4797526277618</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>212.2897156032233</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>211.0481550341917</v>
+        <v>64.03837846862882</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>85.52708871590693</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>106.0172206769629</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>288.9755930850456</v>
       </c>
     </row>
     <row r="6">
@@ -27694,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>39.06360943114922</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27712,10 +27712,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120974</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.92180400150561</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,13 +27742,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527771</v>
       </c>
       <c r="S6" t="n">
         <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>129.4457423229416</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
         <v>225.8544875035546</v>
@@ -27779,22 +27779,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248085</v>
+        <v>122.1505735248086</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
-        <v>204.7191642435938</v>
+        <v>55.44238174930939</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2586305026775</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>22.80911833508492</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>156.3029282374023</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27864,13 +27864,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>207.8330828071356</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0334742203003</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348406</v>
+        <v>123.4854171348404</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896857</v>
+        <v>251.0453666896856</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>309.0387064717327</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27934,7 +27934,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>1.776449164529879</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -27946,7 +27946,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1.77644916451618</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -28013,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>115.9615342899003</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2573199590395</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.8162497430993</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640953</v>
+        <v>101.5869591640951</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6738502503845</v>
+        <v>194.6738502503844</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7514885103387</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271897703044</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>129.6847607342546</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28623,7 +28623,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -29748,25 +29748,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>-8.44124770082999e-13</v>
       </c>
       <c r="T32" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -30039,7 +30039,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30222,7 +30222,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30276,19 +30276,19 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>-9.729902601821341e-14</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="C40" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="D40" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="E40" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="F40" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="G40" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="H40" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="I40" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="J40" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="K40" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="L40" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="M40" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="N40" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="O40" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="P40" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="R40" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="S40" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="T40" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="U40" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="V40" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="W40" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="X40" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="Y40" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>-1.13686837721616e-13</v>
       </c>
     </row>
     <row r="41">
@@ -30474,10 +30474,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>-3.565601406792922e-14</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-14</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30510,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-14</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-14</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-14</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-14</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-14</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-14</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-14</v>
       </c>
     </row>
     <row r="42">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425035</v>
       </c>
       <c r="H2" t="n">
-        <v>25.28116948649916</v>
+        <v>25.28116948649915</v>
       </c>
       <c r="I2" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350877</v>
       </c>
       <c r="J2" t="n">
-        <v>209.5161878388634</v>
+        <v>209.5161878388633</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016251</v>
       </c>
       <c r="L2" t="n">
-        <v>389.5577350167918</v>
+        <v>389.5577350167916</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459292</v>
+        <v>433.458039945929</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986831</v>
+        <v>440.471844198683</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658379</v>
+        <v>415.9250721658378</v>
       </c>
       <c r="P2" t="n">
-        <v>354.9824263269073</v>
+        <v>354.9824263269072</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.5770185656231</v>
+        <v>266.577018565623</v>
       </c>
       <c r="R2" t="n">
-        <v>155.0658623465206</v>
+        <v>155.0658623465205</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702305</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1974850295540029</v>
+        <v>0.1974850295540028</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.32079757678718</v>
+        <v>1.320797576787179</v>
       </c>
       <c r="H3" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990946</v>
       </c>
       <c r="J3" t="n">
         <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
-        <v>213.2798437919895</v>
+        <v>213.2798437919894</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458303</v>
       </c>
       <c r="M3" t="n">
-        <v>334.6599825043656</v>
+        <v>334.6599825043655</v>
       </c>
       <c r="N3" t="n">
-        <v>343.517436429399</v>
+        <v>343.5174364293989</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542724</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480711</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.5986520825179</v>
+        <v>168.5986520825178</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736542</v>
       </c>
       <c r="S3" t="n">
-        <v>24.53323569163905</v>
+        <v>24.53323569163904</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944812</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020919</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.107312319912174</v>
+        <v>1.107312319912173</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582789</v>
+        <v>9.845013171582785</v>
       </c>
       <c r="I4" t="n">
-        <v>33.29990140244975</v>
+        <v>33.29990140244973</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779065</v>
       </c>
       <c r="K4" t="n">
         <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
-        <v>164.6271425440336</v>
+        <v>164.6271425440335</v>
       </c>
       <c r="M4" t="n">
-        <v>173.576239384051</v>
+        <v>173.5762393840509</v>
       </c>
       <c r="N4" t="n">
-        <v>169.4489843734694</v>
+        <v>169.4489843734693</v>
       </c>
       <c r="O4" t="n">
         <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
-        <v>133.9243918555596</v>
+        <v>133.9243918555595</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919118</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350553</v>
       </c>
       <c r="S4" t="n">
         <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715649</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339134</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425035</v>
       </c>
       <c r="H5" t="n">
-        <v>25.28116948649916</v>
+        <v>25.28116948649915</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350883</v>
+        <v>95.16927002350877</v>
       </c>
       <c r="J5" t="n">
-        <v>209.5161878388634</v>
+        <v>209.5161878388633</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016251</v>
       </c>
       <c r="L5" t="n">
-        <v>389.5577350167918</v>
+        <v>389.5577350167916</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459293</v>
+        <v>433.458039945929</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986832</v>
+        <v>440.471844198683</v>
       </c>
       <c r="O5" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658378</v>
       </c>
       <c r="P5" t="n">
-        <v>354.9824263269073</v>
+        <v>354.9824263269072</v>
       </c>
       <c r="Q5" t="n">
-        <v>266.5770185656231</v>
+        <v>266.577018565623</v>
       </c>
       <c r="R5" t="n">
-        <v>155.0658623465206</v>
+        <v>155.0658623465205</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702305</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1974850295540029</v>
+        <v>0.1974850295540028</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.32079757678718</v>
+        <v>1.320797576787179</v>
       </c>
       <c r="H6" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990946</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
-        <v>213.2798437919895</v>
+        <v>213.2798437919894</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458303</v>
       </c>
       <c r="M6" t="n">
-        <v>334.6599825043656</v>
+        <v>334.6599825043655</v>
       </c>
       <c r="N6" t="n">
-        <v>343.517436429399</v>
+        <v>343.5174364293989</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542724</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480711</v>
       </c>
       <c r="Q6" t="n">
-        <v>168.5986520825179</v>
+        <v>168.5986520825178</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736542</v>
       </c>
       <c r="S6" t="n">
-        <v>24.53323569163905</v>
+        <v>24.53323569163904</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944812</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020919</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.107312319912174</v>
+        <v>1.107312319912173</v>
       </c>
       <c r="H7" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582785</v>
       </c>
       <c r="I7" t="n">
-        <v>33.29990140244975</v>
+        <v>33.29990140244973</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779065</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
-        <v>164.6271425440336</v>
+        <v>164.6271425440335</v>
       </c>
       <c r="M7" t="n">
-        <v>173.576239384051</v>
+        <v>173.5762393840509</v>
       </c>
       <c r="N7" t="n">
-        <v>169.4489843734694</v>
+        <v>169.4489843734693</v>
       </c>
       <c r="O7" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
-        <v>133.9243918555596</v>
+        <v>133.9243918555595</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919118</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350553</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715649</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339134</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885557</v>
+        <v>3.753577726885568</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546671</v>
+        <v>38.44132789546683</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157556</v>
+        <v>144.709805315756</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972533</v>
+        <v>318.5802175972543</v>
       </c>
       <c r="K8" t="n">
-        <v>477.469162776319</v>
+        <v>477.4691627763204</v>
       </c>
       <c r="L8" t="n">
-        <v>592.342717135493</v>
+        <v>592.3427171354948</v>
       </c>
       <c r="M8" t="n">
-        <v>659.095405035994</v>
+        <v>659.095405035996</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525076</v>
+        <v>669.7602577525097</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307894</v>
+        <v>632.4356192307912</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983021</v>
+        <v>539.7691690983037</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542129</v>
+        <v>405.3441667542141</v>
       </c>
       <c r="R8" t="n">
-        <v>235.785676886475</v>
+        <v>235.7856768864758</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140471</v>
+        <v>85.53465245140497</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944153</v>
+        <v>16.43128649944158</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508444</v>
+        <v>0.3002862181508454</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436929</v>
+        <v>2.008341139436935</v>
       </c>
       <c r="H9" t="n">
-        <v>19.3963473203514</v>
+        <v>19.39634732035146</v>
       </c>
       <c r="I9" t="n">
-        <v>69.1468330902627</v>
+        <v>69.14683309026292</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079425</v>
+        <v>189.7441951079431</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502168</v>
+        <v>324.3030514502178</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571281</v>
+        <v>436.0654741571294</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617166</v>
+        <v>508.8678404617182</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152214</v>
+        <v>522.336058015223</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519084</v>
+        <v>477.8354464519098</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947589</v>
+        <v>383.5050724947601</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463702</v>
+        <v>256.362984746371</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204789</v>
+        <v>124.6933209204793</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366399</v>
+        <v>37.30405581366411</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133936</v>
+        <v>8.095024154133961</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419033</v>
+        <v>0.1321277065419037</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752559</v>
+        <v>1.683725746752564</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840004</v>
+        <v>14.96985254840008</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415879</v>
+        <v>50.63422518415895</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954059</v>
+        <v>119.0394102954063</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772518</v>
+        <v>195.6183185772524</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490123</v>
+        <v>250.3240987490131</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023125</v>
+        <v>263.9316641023133</v>
       </c>
       <c r="N10" t="n">
-        <v>257.655959046235</v>
+        <v>257.6559590462358</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046254</v>
+        <v>237.9869810046262</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708731</v>
+        <v>203.6389757708737</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939802</v>
+        <v>140.9890713939807</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307414</v>
+        <v>75.70643221307436</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658777</v>
+        <v>29.34274778658786</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942751</v>
+        <v>7.194100917942773</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650333</v>
+        <v>0.09183958618650362</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31837,7 +31837,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31849,22 +31849,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>301.1823051500301</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>641.2555750770852</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>409.0029787211712</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>465.7451325200311</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32101,16 +32101,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32320,25 +32320,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>297.7596336167232</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>213.1625787491746</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32794,10 +32794,10 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32806,7 +32806,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>437.8531046913764</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33022,16 +33022,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>404.0195168876591</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33040,16 +33040,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33259,31 +33259,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33496,34 +33496,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33751,16 +33751,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>354.9153144485699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33894,7 +33894,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663315</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817575</v>
@@ -33982,22 +33982,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O39" t="n">
-        <v>303.4297552732313</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34131,7 +34131,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34213,13 +34213,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>175.6052721551105</v>
       </c>
       <c r="L42" t="n">
-        <v>579.5299594447137</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34228,13 +34228,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34450,13 +34450,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217709</v>
+        <v>28.470283312177</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664455</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468043</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186563</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020922</v>
+        <v>211.058780602092</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441512</v>
+        <v>185.826860744151</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716376</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117347</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.43840481763047</v>
+        <v>75.43840481763038</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659561</v>
       </c>
       <c r="M3" t="n">
-        <v>192.5259485823473</v>
+        <v>192.5259485823472</v>
       </c>
       <c r="N3" t="n">
-        <v>212.1757243460657</v>
+        <v>212.1757243460656</v>
       </c>
       <c r="O3" t="n">
-        <v>171.6550983098281</v>
+        <v>171.655098309828</v>
       </c>
       <c r="P3" t="n">
-        <v>215.5616691250136</v>
+        <v>118.2400000337409</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649638</v>
+        <v>125.9385470877678</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3800667966406</v>
+        <v>106.3800667966405</v>
       </c>
       <c r="L4" t="n">
         <v>192.2171678043497</v>
       </c>
       <c r="M4" t="n">
-        <v>213.1601163458916</v>
+        <v>213.1601163458915</v>
       </c>
       <c r="N4" t="n">
-        <v>213.581156752698</v>
+        <v>213.5811567526979</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0986910958077</v>
+        <v>181.0986910958063</v>
       </c>
       <c r="P4" t="n">
-        <v>131.2029511204531</v>
+        <v>131.202951120453</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496884</v>
+        <v>6.560263827496797</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217712</v>
+        <v>28.470283312177</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664455</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468043</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186563</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020923</v>
+        <v>211.058780602092</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441513</v>
+        <v>185.826860744151</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716376</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117347</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>97.3216690912724</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.4384048176305</v>
+        <v>75.43840481763038</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659561</v>
       </c>
       <c r="M6" t="n">
-        <v>192.5259485823473</v>
+        <v>192.5259485823472</v>
       </c>
       <c r="N6" t="n">
-        <v>212.1757243460657</v>
+        <v>212.1757243460656</v>
       </c>
       <c r="O6" t="n">
-        <v>171.6550983098281</v>
+        <v>171.655098309828</v>
       </c>
       <c r="P6" t="n">
-        <v>118.240000033741</v>
+        <v>118.2400000337409</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649641</v>
+        <v>125.9385470877692</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>106.3800667966406</v>
+        <v>106.3800667966405</v>
       </c>
       <c r="L7" t="n">
         <v>192.2171678043497</v>
       </c>
       <c r="M7" t="n">
-        <v>213.1601163458916</v>
+        <v>213.1601163458915</v>
       </c>
       <c r="N7" t="n">
-        <v>213.581156752698</v>
+        <v>213.5811567526979</v>
       </c>
       <c r="O7" t="n">
         <v>181.0986910958077</v>
       </c>
       <c r="P7" t="n">
-        <v>131.2029511204531</v>
+        <v>131.202951120453</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496797</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.534313070567</v>
+        <v>137.534313070568</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313385</v>
+        <v>257.3793117313399</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655058</v>
+        <v>356.5763021655076</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087213</v>
+        <v>428.7491718087233</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559167</v>
+        <v>440.3471941559188</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091026</v>
+        <v>402.3374078091044</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430325</v>
+        <v>308.5361733430341</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797635</v>
+        <v>183.0384768797647</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234292</v>
+        <v>20.20013907234366</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>188.9976037816847</v>
+        <v>188.9976037816853</v>
       </c>
       <c r="K9" t="n">
-        <v>379.2332739216754</v>
+        <v>450.9268494884374</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772539</v>
+        <v>297.5110943772552</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396983</v>
+        <v>366.7338065396999</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318881</v>
+        <v>390.9943459318897</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074639</v>
+        <v>335.2392020074653</v>
       </c>
       <c r="P9" t="n">
-        <v>249.5306650804287</v>
+        <v>249.5306650804299</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.4584983961977</v>
+        <v>254.764922829442</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873315</v>
+        <v>25.68023017873351</v>
       </c>
       <c r="K10" t="n">
-        <v>173.348826751369</v>
+        <v>173.3488267513696</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093285</v>
+        <v>277.9141240093293</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641531</v>
+        <v>303.5155410641539</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254636</v>
+        <v>301.7881314254644</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186651</v>
+        <v>262.5721089186659</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357665</v>
+        <v>200.9175350357672</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228584</v>
+        <v>54.82702814228627</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35497,22 +35497,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>159.0482712280117</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,22 +35725,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>266.8689447991529</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>334.4034204366978</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35749,7 +35749,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35968,25 +35968,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>163.785226202393</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>73.18080466315305</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,10 +36442,10 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36454,7 +36454,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>303.8786972770462</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>265.4651371077849</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,16 +36688,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295349</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37399,16 +37399,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>220.9409070342396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295349</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396452</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37630,22 +37630,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O39" t="n">
-        <v>160.8335108287869</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295349</v>
+        <v>81.04648326295325</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066251</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998982</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,10 +37779,10 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367803</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37861,13 +37861,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>37.76383318075152</v>
       </c>
       <c r="L42" t="n">
-        <v>440.9755796648395</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37876,13 +37876,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38031,7 +38031,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
@@ -38098,13 +38098,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
